--- a/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,85%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>26,24; 39,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>18,59; 29,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>41,56; 54,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>28,41; 41,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>20,67; 31,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>41,21; 50,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>29,14; 38,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>21,01; 29,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>42,89; 50,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,14%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>21,57; 30,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>18,86; 28,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>23,84; 33,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>30,94; 42,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>22,93; 31,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>24,1; 33,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>29,18; 38,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>31,58; 39,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>23,38; 29,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>22,85; 28,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,51; 34,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>32,84; 39,67</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>24,77; 37,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>19,12; 29,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>18,46; 27,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>19,0; 28,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>20,71; 31,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>25,39; 35,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>20,86; 30,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>22,86; 31,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>24,24; 31,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>23,93; 31,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>21,0; 27,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>22,1; 28,64</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>24,42; 35,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,59; 31,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>20,88; 30,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>43,33; 56,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>23,79; 34,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>24,68; 32,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>20,42; 29,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>38,64; 49,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>25,68; 33,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>25,16; 30,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>21,53; 28,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>42,73; 51,54</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,62%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>15,36; 26,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>17,09; 30,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>59,2; 75,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>82,61; 90,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>17,73; 31,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>23,08; 35,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>61,56; 76,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>84,07; 90,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>18,19; 27,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>21,52; 30,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>62,47; 73,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>84,99; 89,73</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,19%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>28,86; 42,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>25,33; 37,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>18,34; 29,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>13,8; 23,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>27,29; 40,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>21,82; 32,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>26,01; 38,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>16,2; 24,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>29,37; 39,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>24,9; 32,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>23,23; 31,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,22; 22,45</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,01%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>22,58; 30,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,94; 31,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>27,73; 36,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>42,82; 51,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>22,1; 29,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>28,27; 35,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>29,76; 38,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>45,34; 72,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>23,31; 28,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>27,2; 32,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>30,08; 36,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>45,89; 63,98</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>26,08; 33,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>37,55; 45,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>49,16; 57,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>47,28; 64,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>30,16; 37,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>34,03; 41,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>47,87; 56,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>65,58; 71,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>29,11; 34,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>37,06; 42,77</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>49,62; 55,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>57,86; 67,33</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,56%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,88; 30,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,83; 31,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>32,97; 36,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,25; 49,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,48; 30,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,4; 32,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>35,27; 39,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>47,89; 55,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,61; 30,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>29,34; 31,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>34,79; 37,42</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>46,85; 51,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>46,82%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,63; 30,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,56; 54,06</t>
+          <t>40,76; 55,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,72; 32,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,21; 50,84</t>
+          <t>40,36; 50,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,65; 29,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,88</t>
+          <t>42,58; 51,41</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,94; 42,35</t>
+          <t>31,04; 43,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,58; 39,21</t>
+          <t>31,77; 39,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 39,67</t>
+          <t>33,1; 40,38</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,0; 28,6</t>
+          <t>18,75; 28,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,09</t>
+          <t>22,95; 31,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 28,64</t>
+          <t>22,17; 28,73</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>42,39%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 31,47</t>
+          <t>24,62; 35,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,33; 56,88</t>
+          <t>43,08; 57,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 32,4</t>
+          <t>25,57; 35,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,64; 49,78</t>
+          <t>23,86; 46,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,16; 30,46</t>
+          <t>26,24; 33,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,73; 51,54</t>
+          <t>32,18; 49,15</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>87,6%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,61; 90,8</t>
+          <t>82,65; 90,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,07; 90,95</t>
+          <t>84,03; 90,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>84,99; 89,73</t>
+          <t>85,0; 89,72</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,8; 23,43</t>
+          <t>13,78; 23,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 24,9</t>
+          <t>16,14; 24,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 22,45</t>
+          <t>16,12; 22,41</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,02%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>54,42%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,82; 51,61</t>
+          <t>42,64; 51,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,34; 72,65</t>
+          <t>45,36; 81,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>45,89; 63,98</t>
+          <t>46,01; 72,12</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>64,21%</t>
+          <t>56,12%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,28; 64,56</t>
+          <t>21,8; 64,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>65,58; 71,67</t>
+          <t>65,64; 71,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>57,86; 67,33</t>
+          <t>34,84; 66,92</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>46,78%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44,25; 49,01</t>
+          <t>33,48; 47,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,89; 55,32</t>
+          <t>45,72; 59,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>46,85; 51,51</t>
+          <t>41,74; 51,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 39,28</t>
+          <t>25,16; 38,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,63; 30,83</t>
+          <t>20,06; 31,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 29,45</t>
+          <t>18,25; 29,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,76; 55,06</t>
+          <t>40,85; 55,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,41; 41,93</t>
+          <t>28,32; 42,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 32,53</t>
+          <t>20,69; 32,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 31,92</t>
+          <t>20,44; 31,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,36; 50,48</t>
+          <t>40,52; 50,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,14; 38,36</t>
+          <t>28,81; 38,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 29,63</t>
+          <t>21,94; 30,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,04</t>
+          <t>20,86; 29,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,58; 51,41</t>
+          <t>42,66; 51,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 30,23</t>
+          <t>21,67; 30,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,86; 28,24</t>
+          <t>18,79; 27,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 33,6</t>
+          <t>22,97; 33,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 43,21</t>
+          <t>32,14; 44,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,48</t>
+          <t>22,59; 31,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,1; 33,09</t>
+          <t>24,13; 33,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 38,8</t>
+          <t>29,53; 38,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,77; 39,44</t>
+          <t>31,69; 39,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 29,35</t>
+          <t>23,23; 29,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 28,88</t>
+          <t>22,9; 29,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,51; 34,4</t>
+          <t>28,07; 34,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,1; 40,38</t>
+          <t>32,89; 40,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,77; 37,45</t>
+          <t>24,92; 36,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,12; 29,29</t>
+          <t>19,32; 29,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,46; 27,5</t>
+          <t>18,25; 27,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 28,61</t>
+          <t>19,1; 28,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,71; 31,09</t>
+          <t>20,63; 30,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,39; 35,62</t>
+          <t>25,2; 35,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,86; 30,56</t>
+          <t>20,41; 30,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 31,3</t>
+          <t>22,8; 31,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,24; 31,98</t>
+          <t>23,95; 31,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,93; 31,5</t>
+          <t>23,61; 31,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 27,63</t>
+          <t>20,88; 27,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 28,73</t>
+          <t>22,0; 28,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 35,29</t>
+          <t>24,32; 35,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,62; 35,01</t>
+          <t>24,27; 34,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,88; 30,63</t>
+          <t>20,4; 30,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,08; 57,12</t>
+          <t>42,83; 56,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,79; 34,19</t>
+          <t>23,88; 34,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 35,27</t>
+          <t>25,66; 36,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 29,91</t>
+          <t>20,4; 30,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 46,36</t>
+          <t>23,04; 47,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,68; 33,35</t>
+          <t>25,67; 32,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,24; 33,54</t>
+          <t>26,08; 33,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,53; 28,67</t>
+          <t>21,66; 28,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,18; 49,15</t>
+          <t>30,41; 48,84</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,36; 26,54</t>
+          <t>15,18; 26,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 30,1</t>
+          <t>17,18; 29,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,2; 75,53</t>
+          <t>58,44; 75,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,65; 90,74</t>
+          <t>82,73; 90,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 31,45</t>
+          <t>18,17; 31,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,08; 35,44</t>
+          <t>22,05; 34,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,56; 76,35</t>
+          <t>61,61; 76,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,03; 90,88</t>
+          <t>84,23; 90,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 27,17</t>
+          <t>18,63; 26,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,52; 30,53</t>
+          <t>21,0; 30,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62,47; 73,75</t>
+          <t>62,56; 73,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,0; 89,72</t>
+          <t>85,05; 90,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,86; 42,44</t>
+          <t>28,72; 42,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,33; 37,05</t>
+          <t>25,16; 37,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,34; 29,18</t>
+          <t>18,22; 29,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,4</t>
+          <t>13,81; 22,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,29; 40,25</t>
+          <t>26,94; 40,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,82; 32,67</t>
+          <t>21,48; 32,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,01; 38,12</t>
+          <t>25,86; 37,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,78</t>
+          <t>15,88; 24,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,37; 39,16</t>
+          <t>29,45; 39,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,9; 32,8</t>
+          <t>24,84; 32,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 31,56</t>
+          <t>24,04; 32,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,41</t>
+          <t>16,2; 22,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,66</t>
+          <t>22,73; 31,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,94; 31,78</t>
+          <t>23,95; 31,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,73; 36,97</t>
+          <t>27,89; 37,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,64; 51,76</t>
+          <t>42,16; 51,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,38</t>
+          <t>21,67; 29,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,27; 35,93</t>
+          <t>28,21; 35,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,76; 38,52</t>
+          <t>29,74; 38,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,36; 81,67</t>
+          <t>45,28; 81,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,31; 28,87</t>
+          <t>23,23; 28,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,2; 32,74</t>
+          <t>27,36; 32,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,08; 36,74</t>
+          <t>30,08; 36,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>46,01; 72,12</t>
+          <t>45,63; 71,88</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,08; 33,86</t>
+          <t>25,92; 34,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,55; 45,66</t>
+          <t>37,71; 46,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,16; 57,16</t>
+          <t>49,23; 57,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,8; 64,15</t>
+          <t>19,5; 64,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,16; 37,72</t>
+          <t>30,64; 38,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,03; 41,67</t>
+          <t>33,96; 41,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,87; 56,03</t>
+          <t>48,02; 56,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>65,64; 71,56</t>
+          <t>65,87; 72,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,11; 34,78</t>
+          <t>29,23; 34,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>37,06; 42,77</t>
+          <t>36,89; 42,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>49,62; 55,03</t>
+          <t>49,85; 55,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,84; 66,92</t>
+          <t>31,54; 66,96</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>26,88; 30,5</t>
+          <t>26,9; 30,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,83; 31,45</t>
+          <t>27,84; 31,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,97; 36,78</t>
+          <t>33,01; 36,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33,48; 47,75</t>
+          <t>33,83; 47,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,88</t>
+          <t>27,54; 30,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,92</t>
+          <t>29,73; 33,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>35,27; 39,0</t>
+          <t>35,21; 39,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,72; 59,35</t>
+          <t>46,02; 59,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27,61; 30,05</t>
+          <t>27,57; 30,16</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,34; 31,73</t>
+          <t>29,42; 31,81</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>34,79; 37,42</t>
+          <t>34,7; 37,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>41,74; 51,02</t>
+          <t>41,91; 50,97</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una limpieza de boca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61945</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62475</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57675</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>146886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70323</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65495</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63760</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>130754</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>132268</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>127970</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>121434</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>277640</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>48189; 73935</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50257; 77753</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44759; 71965</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124753; 168271</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56992; 85209</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51984; 81171</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>50340; 77886</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>116525; 146035</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113150; 152679</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>110115; 150795</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>102540; 144904</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>253001; 303767</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105588</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94110</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>102720</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>190856</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>117739</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>123117</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>132682</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>178033</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>223327</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>217227</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>235403</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>368889</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88793; 125774</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>76148; 111388</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83420; 119912</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>162931; 224165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>99444; 136870</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>105653; 145884</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>116162; 153145</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>158922; 197382</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>197465; 249975</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>193064; 245373</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>212355; 264086</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>331690; 404453</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>72087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70557</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66632</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70826</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>74461</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>99789</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>77358</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>90508</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>146547</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>170345</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>143989</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>161334</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>58954; 86957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56551; 86542</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53011; 80095</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57347; 86562</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59576; 89319</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>82860; 117232</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62800; 92499</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76432; 105020</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>125795; 167415</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>146704; 193589</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>124890; 165409</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>139815; 181703</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79496</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91985</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83201</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>155961</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>103747</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87404</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>176231</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>165614</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>195732</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>170605</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>332191</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>65068; 95441</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75997; 108953</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67335; 99618</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>132833; 176730</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>71543; 102988</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>87971; 123548</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>71167; 105064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>109100; 224276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>145576; 186820</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>171038; 219839</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>147053; 195045</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>238260; 382715</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43915</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80643</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>146656</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41965</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>55258</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>100873</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>178082</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>77093</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>99172</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>181516</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>324738</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25847; 45641</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32988; 56329</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>69670; 89747</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>139340; 152253</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31598; 54473</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>42912; 67478</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89641; 110795</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>170397; 183584</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64110; 92657</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81199; 117305</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>165612; 194637</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>315286; 334024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>67082</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>76691</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>54716</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>45792</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>67218</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>70676</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>78177</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49696</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134300</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>147367</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>132894</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>95488</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>54359; 81018</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>62890; 92666</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42561; 69068</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>35043; 58124</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>54808; 81822</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>56874; 85885</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63910; 93633</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>39128; 60890</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>115644; 153865</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>127887; 169583</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>115557; 153902</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>81021; 111240</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122835</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>158498</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>143380</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>283080</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>137907</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>200558</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>166438</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>494480</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>260742</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>359055</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>309819</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>777561</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>105550; 145023</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>137502; 178227</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>123368; 164263</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>253149; 311258</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116889; 157720</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>176613; 225082</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>144836; 189876</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>375066; 677838</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>233193; 289148</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>328332; 391981</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>279552; 337216</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>651926; 1026997</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>158282</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>265631</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>339484</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>420558</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>201155</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>264496</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>359580</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>484425</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>359437</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>530127</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>699064</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>904983</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>136241; 180472</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>239052; 291848</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>315201; 366677</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>177180; 585836</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>181257; 225154</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>238526; 292834</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>331957; 388813</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>463671; 507030</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>326544; 389922</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>492916; 566101</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>663795; 738241</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>508597; 1079836</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>702443</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>863862</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>928451</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1460614</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>796886</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>983135</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1066273</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1782210</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1499329</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1846997</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1994724</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3242824</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>660275; 751819</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>810594; 914182</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>879600; 976764</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1134610; 1595896</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>754103; 843476</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>935900; 1040413</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1009448; 1119982</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1646831; 2130632</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1431757; 1566168</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1782601; 1927511</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1919510; 2064428</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2905594; 3533389</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>